--- a/SSIS_Project/ASS-2/DATA/Data3.xlsx
+++ b/SSIS_Project/ASS-2/DATA/Data3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSIS_Practice\SSIS_Project\ass_2\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSIS_Practice\SSIS_Project\ASS-2\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1B28C-1559-4502-A11A-9AC717C7BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCCB4A-6F77-4BFC-BF33-2691AD46B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE7D5B9A-91EE-436F-86E5-BF46C311AEE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA3" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -891,7 +891,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
